--- a/explain_failures.xlsx
+++ b/explain_failures.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_projects\nl_to_sql_evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C5F58-D231-4228-A9EE-015124FC59A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$388</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>failed_query_id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,3123 +387,3125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B388"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>failed_query_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>10016</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10022</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10023</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10024</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>10025</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>10033</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10034</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>10035</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>10036</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>20080</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>10081</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10082</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10089</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>10090</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>10093</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>10094</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>20100</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>20101</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>10107</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>10108</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10109</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>10110</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>20121</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10123</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10124</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>20133</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>20137</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>20138</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>20141</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>20142</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>10149</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>10150</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>20158</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>20161</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>20162</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>20165</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>20167</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>10175</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>10176</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>10177</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>10178</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>10179</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>10180</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>10181</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>20181</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>10182</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>10183</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>10184</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>10185</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>10186</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>10193</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>10194</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>10195</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>10196</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>10197</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>10198</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>10199</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>10200</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>10201</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>10202</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>10203</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>10204</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>10205</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>10206</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>10207</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>10208</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>10209</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>10210</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>10211</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>10212</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>10213</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>10214</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>10215</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>10216</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>10217</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>10218</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>10219</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>10220</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>10231</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>10232</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>10233</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>10234</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>10235</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>10236</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>10237</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>10238</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>10239</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>10240</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>10245</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>20245</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>10246</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>10247</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>20247</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>10248</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>10249</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>20249</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>10250</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>10251</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>10252</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>10253</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>20253</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>10254</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>10255</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>10256</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>10277</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>10278</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>10283</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>10284</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>10301</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>10302</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>10303</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>10304</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>10311</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>10312</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>10323</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>10324</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>10325</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>10326</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>20329</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>10335</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>10336</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>10337</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>10338</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>10339</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>10340</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>20341</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>20342</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>10349</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>20349</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>10350</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>10351</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>10352</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>10355</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>10356</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>10365</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>10366</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>10369</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>10370</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>10373</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>10374</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>10387</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>10388</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>10403</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>10404</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>10419</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>10420</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>10421</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>10463</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>10464</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>10483</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>10484</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>20487</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>10499</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>10500</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>20500</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>10515</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>10516</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>10525</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>10526</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>10529</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>10530</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>20530</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>10533</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>20533</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>10534</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>20534</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>10539</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>20539</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>10540</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>20540</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>10541</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>20541</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>10542</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>10551</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>10552</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>10561</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>20561</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>10562</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>20566</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>10573</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>10574</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>20578</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>10587</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>20587</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>10588</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>10589</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>20589</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>10590</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>10593</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>20593</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>10594</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>10599</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>20599</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>10600</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>10601</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>20601</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>10602</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>10603</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>10604</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>10609</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>20609</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>10610</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>20610</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>10611</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>20611</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>10612</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>20612</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>10619</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>20619</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>10620</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>20620</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>10621</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>20621</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>10622</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>10623</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>20623</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>10624</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>20624</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>10625</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>20625</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>10626</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>20626</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>10631</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>10632</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>10641</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>20641</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>10642</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>20668</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>10681</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>20681</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>10682</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>10694</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>10695</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>20700</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>10701</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>10704</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>10705</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>10706</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>10707</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>10708</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>10709</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>10710</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>10711</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>10712</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>10713</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>10714</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>10715</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>10716</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>10717</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>10718</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>10719</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>10720</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>10721</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>10722</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>10723</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>10724</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>10725</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>10726</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>10727</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>10728</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>10729</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>10730</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>10731</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>10734</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>10735</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>10736</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>10737</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>10738</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>10739</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>10744</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>10745</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>10746</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>10747</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>10748</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>10749</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>10750</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>10751</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>10752</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>10753</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>10754</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>10755</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>10756</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>10757</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>10758</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>10759</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>10760</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>10761</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>10762</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>10763</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>10764</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>10765</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>10766</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>10767</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>20767</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>10768</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>10769</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>10770</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>10771</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>10772</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>10773</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>10774</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>10775</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>10776</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>10777</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>10778</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>10779</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>20779</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>10780</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>10781</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>10782</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>10783</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>10786</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>10787</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>20795</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>20799</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>10806</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>10807</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>10808</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>10809</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>10810</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>10811</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>10816</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>10817</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>10818</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>10819</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>10820</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>10821</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>20826</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>20827</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>10832</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>20832</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>10833</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>10842</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>10843</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>10844</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>10845</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>10858</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>10859</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>10860</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>10861</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>10868</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>10869</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>10872</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>10873</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>10884</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>10885</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>10886</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>10887</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>10888</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>10889</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>10890</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>10891</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>10892</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>10893</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>10904</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>10905</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>10906</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>10907</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>10908</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>10909</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>10910</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>10911</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>10912</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>10913</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>10922</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>10923</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>10930</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>10931</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>10932</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>10933</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>10936</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>10937</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>10938</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>10939</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>10940</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>10941</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>10942</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>10943</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>10944</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>10945</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>20955</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>11006</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>21006</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>11007</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>11031</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>11032</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>11033</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B388" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="lessThan" val="15000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>